--- a/biology/Médecine/1589_en_santé_et_médecine/1589_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1589_en_santé_et_médecine/1589_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1589_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1589_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1589 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1589_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1589_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5 janvier : Catherine de Médicis meurt d'une pleurésie[1].
-Peste en Europe[2].
-Urbain Hémard (c.1548-c.1616), auteur, en 1582, d'une Recherche de la vraie anatomie des dents, « premier ouvrage français entièrement consacré à l'odontologie, est appelé à Aix en Provence, alors désolé par la peste » et où [Antoine] Davin, médecin du roi, lui adresse « les plus flatteuses louanges[3] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5 janvier : Catherine de Médicis meurt d'une pleurésie.
+Peste en Europe.
+Urbain Hémard (c.1548-c.1616), auteur, en 1582, d'une Recherche de la vraie anatomie des dents, « premier ouvrage français entièrement consacré à l'odontologie, est appelé à Aix en Provence, alors désolé par la peste » et où [Antoine] Davin, médecin du roi, lui adresse « les plus flatteuses louanges ».</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1589_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1589_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Lorenz Scholz von Rosenau (1552-1599)  fait paraître ses « Aphorismes médicaux[4] ».
-Sous le titre de De admirabili viperae natura et ejusdem facultatibus, le naturaliste et médecin italien Baldo Angelo Abati publie l'un des premiers traités sur les serpents[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lorenz Scholz von Rosenau (1552-1599)  fait paraître ses « Aphorismes médicaux ».
+Sous le titre de De admirabili viperae natura et ejusdem facultatibus, le naturaliste et médecin italien Baldo Angelo Abati publie l'un des premiers traités sur les serpents.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1589_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1589_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3 juillet : Johann Georg Wirsung (mort en 1643), anatomiste allemand[6].
-Septembre : Lazare Rivière (mort en 1655), médecin français[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 juillet : Johann Georg Wirsung (mort en 1643), anatomiste allemand.
+Septembre : Lazare Rivière (mort en 1655), médecin français.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1589_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1589_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7 avril : Giulio Cesare Aranzio (né en 1530), médecin italien[8],[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 avril : Giulio Cesare Aranzio (né en 1530), médecin italien,.
 </t>
         </is>
       </c>
